--- a/data/case1/20/Plm1_14.xlsx
+++ b/data/case1/20/Plm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.093875145736816989</v>
+        <v>-0.054833169165874551</v>
       </c>
       <c r="B1" s="0">
-        <v>0.093522118465131143</v>
+        <v>0.054583645564107997</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.014179027810268252</v>
+        <v>-0.0084738997451658804</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.015002449723095168</v>
+        <v>0.007447390774299123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.11793455398115427</v>
+        <v>0.095486375985778693</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.11854461102470637</v>
+        <v>-0.096096683973755148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16544540793186258</v>
+        <v>-0.1878959114650911</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16453346792904711</v>
+        <v>0.18668514358022392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15853346841044313</v>
+        <v>-0.18068514398232516</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1567015741113682</v>
+        <v>0.17823223215193185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.082651577532977694</v>
+        <v>-0.056659559603742249</v>
       </c>
       <c r="B6" s="0">
-        <v>0.082553512127064188</v>
+        <v>0.056616502633896726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.062553512718835691</v>
+        <v>-0.036616503128758637</v>
       </c>
       <c r="B7" s="0">
-        <v>0.062344125537183714</v>
+        <v>0.036552234274708439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.04234412613391747</v>
+        <v>0.0056171993817821786</v>
       </c>
       <c r="B8" s="0">
-        <v>0.042208167531528673</v>
+        <v>-0.0056283713340583574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.036208168040953836</v>
+        <v>0.011628370913252084</v>
       </c>
       <c r="B9" s="0">
-        <v>0.036106653655905596</v>
+        <v>-0.011650283829903962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.030106654169763658</v>
+        <v>0.017650283410056034</v>
       </c>
       <c r="B10" s="0">
-        <v>0.030098028373714669</v>
+        <v>-0.017653108370744519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.025598028877759305</v>
+        <v>-0.0062828564772061668</v>
       </c>
       <c r="B11" s="0">
-        <v>0.025582738925731263</v>
+        <v>0.006282350432893935</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045395559935760943</v>
+        <v>-0.00028235085287819928</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045151118637181575</v>
+        <v>0.00028043314471748459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039151119160458769</v>
+        <v>0.0057195664351601394</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039084656955623132</v>
+        <v>-0.0057205409874354629</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084657521011302</v>
+        <v>-0.027082065063541272</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052676917350915</v>
+        <v>0.02705105068045377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052677444946433</v>
+        <v>-0.021051051101878215</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027516182240191</v>
+        <v>0.021026645461807547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027516711574762</v>
+        <v>-0.015026645884658407</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004316729247513</v>
+        <v>0.015004234449906839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004317260881578</v>
+        <v>-0.0090042348746166567</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994479885714</v>
+        <v>0.0089999995585055004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.097701146780615034</v>
+        <v>-0.036109746238103924</v>
       </c>
       <c r="B18" s="0">
-        <v>0.097564750563378766</v>
+        <v>0.036096537368983661</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02709675574644077</v>
+        <v>-0.027096537783018793</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013580361274325</v>
+        <v>0.02701362552503328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013580865758883</v>
+        <v>-0.018013625942719713</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004278527557815</v>
+        <v>0.018004259317095261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042790326965161</v>
+        <v>-0.0090042597353647835</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994943799067</v>
+        <v>0.0089999995813174749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093932104756490276</v>
+        <v>-0.093933767174577909</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093624311793382375</v>
+        <v>0.093625303288030537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084624312295933812</v>
+        <v>-0.084625303706252986</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124746699165698</v>
+        <v>0.084124975021502735</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124747427394915</v>
+        <v>-0.042124975625957184</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999267961385</v>
+        <v>0.041999999392253073</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.068049997075874558</v>
+        <v>-0.15545039666389826</v>
       </c>
       <c r="B25" s="0">
-        <v>0.067942515837632556</v>
+        <v>0.15481403330498722</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.061942516336390696</v>
+        <v>-0.088658993310094303</v>
       </c>
       <c r="B26" s="0">
-        <v>0.061808964598959903</v>
+        <v>0.088346738410496783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.055808965099665819</v>
+        <v>-0.082346738833397382</v>
       </c>
       <c r="B27" s="0">
-        <v>0.055368202654840992</v>
+        <v>0.081277997433697902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.049368203162642565</v>
+        <v>-0.075277997865741852</v>
       </c>
       <c r="B28" s="0">
-        <v>0.049079154790104162</v>
+        <v>0.074537484974597668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.037079155342118142</v>
+        <v>-0.062537485445767871</v>
       </c>
       <c r="B29" s="0">
-        <v>0.036957485632081344</v>
+        <v>0.062170368188096958</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.016957486239074004</v>
+        <v>-0.042170368705961803</v>
       </c>
       <c r="B30" s="0">
-        <v>0.016928370780580515</v>
+        <v>0.042019879494294088</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018767803369315</v>
+        <v>-0.027019879989502726</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000681828097228</v>
+        <v>0.027000781237669358</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006824444363005</v>
+        <v>-0.0060007817662874885</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994825439273</v>
+        <v>0.0059999995528823291</v>
       </c>
     </row>
   </sheetData>
